--- a/results/Excel/glass.xlsx
+++ b/results/Excel/glass.xlsx
@@ -591,8 +591,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -742,7 +742,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -807,7 +807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -872,7 +872,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -937,7 +937,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1982,6 +1982,10 @@
         <f>E21+D21</f>
         <v>29.450000000000678</v>
       </c>
+      <c r="F23">
+        <f>SUM(F12:F21)/10</f>
+        <v>0.79831978319783192</v>
+      </c>
       <c r="I23">
         <f>SUM(I2:I11)/10</f>
         <v>0.80308943089430895</v>
@@ -2012,7 +2016,7 @@
   <autoFilter ref="A1:U21">
     <filterColumn colId="1">
       <filters>
-        <filter val="HiCS"/>
+        <filter val="CMI"/>
       </filters>
     </filterColumn>
   </autoFilter>
